--- a/data/trans_orig/P14A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5A2044-1747-4D40-A4FE-F99C0B7F61CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51A3756-F7C7-4523-BBFC-6E1C0A7FE3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5E8E7AC-6182-4CE9-A88F-18976E875E8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D85E2A8-E3AB-42CD-9C80-7C9E5949FA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>61,9%</t>
+    <t>62,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>81,16%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,1%</t>
+    <t>37,41%</t>
   </si>
   <si>
     <t>25,95%</t>
@@ -123,10 +123,10 @@
     <t>18,84%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>89,11%</t>
   </si>
   <si>
-    <t>49,46%</t>
+    <t>50,1%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -147,13 +147,13 @@
     <t>91,09%</t>
   </si>
   <si>
-    <t>55,81%</t>
+    <t>61,76%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>50,54%</t>
+    <t>49,9%</t>
   </si>
   <si>
     <t>0%</t>
@@ -165,7 +165,7 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>44,19%</t>
+    <t>38,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -183,7 +183,7 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>77,37%</t>
@@ -198,16 +198,16 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>22,63%</t>
@@ -222,10 +222,10 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -273,7 +273,7 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>44,28%</t>
   </si>
   <si>
     <t>77,5%</t>
@@ -285,13 +285,13 @@
     <t>82,47%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>49,65%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>55,72%</t>
   </si>
   <si>
     <t>22,5%</t>
@@ -303,7 +303,7 @@
     <t>17,53%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>50,35%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -321,7 +321,7 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>88,47%</t>
@@ -333,16 +333,16 @@
     <t>90,47%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>11,53%</t>
@@ -354,10 +354,10 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ADD49B-5C36-4D5A-86B6-F4611DCAE4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085B767-CD13-4564-8921-8AC83F8A4CC5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B166A4C-961E-40F7-B473-C32DC1F64135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA620B-1A43-4449-A4D1-583B1454975A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51A3756-F7C7-4523-BBFC-6E1C0A7FE3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E064A3F-6B89-4BAC-B431-F87683F01C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D85E2A8-E3AB-42CD-9C80-7C9E5949FA9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA684B50-F8DC-4607-9BC9-3D4704108B52}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="105">
   <si>
     <t>Población que recibe medicación o terapia por angina de pecho en 2012 (Tasa respuesta: 0,68%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>62,59%</t>
+    <t>62,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>74,05%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,41%</t>
+    <t>37,92%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>89,11%</t>
   </si>
   <si>
-    <t>50,1%</t>
+    <t>46,38%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -147,13 +147,13 @@
     <t>91,09%</t>
   </si>
   <si>
-    <t>61,76%</t>
+    <t>62,71%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>49,9%</t>
+    <t>53,62%</t>
   </si>
   <si>
     <t>0%</t>
@@ -165,7 +165,7 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>38,24%</t>
+    <t>37,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -183,127 +183,121 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>74,92%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>25,08%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población que recibe medicación o terapia por angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>73,95%</t>
+    <t>66,3%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>62,77%</t>
+    <t>56,69%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>75,25%</t>
+    <t>76,26%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>26,05%</t>
+    <t>33,7%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>37,23%</t>
+    <t>43,31%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>24,75%</t>
+    <t>23,74%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>44,28%</t>
+    <t>44,69%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>49,65%</t>
+    <t>53,36%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>55,72%</t>
+    <t>55,31%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>50,35%</t>
+    <t>46,64%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -321,43 +315,43 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>65,11%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
 </sst>
 </file>
@@ -769,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085B767-CD13-4564-8921-8AC83F8A4CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1570BB-94AD-4EB3-A81C-D86BC6F50591}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1514,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA620B-1A43-4449-A4D1-583B1454975A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579A8D26-F8FF-4096-B0C7-EA3F20846062}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1811,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1823,10 +1817,10 @@
         <v>10913</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1844,13 +1838,13 @@
         <v>1301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1859,13 +1853,13 @@
         <v>1018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1874,13 +1868,13 @@
         <v>2320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1981,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2005,7 +1999,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2035,7 +2029,7 @@
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,10 +2097,10 @@
         <v>24046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2118,10 +2112,10 @@
         <v>16971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2133,13 +2127,13 @@
         <v>41018</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2148,13 @@
         <v>2108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2169,13 +2163,13 @@
         <v>2212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2184,13 +2178,13 @@
         <v>4320</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
